--- a/zenodo/zenodo_vu_authors.xlsx
+++ b/zenodo/zenodo_vu_authors.xlsx
@@ -14,53 +14,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="281">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
     <t>Affiliation</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Marta Arimont</t>
   </si>
   <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>zenodo</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.5281/zenodo.268416</t>
+  </si>
+  <si>
     <t>Vrije Universiteit Amsterdam</t>
   </si>
   <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>zenodo</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.5281/zenodo.268416</t>
-  </si>
-  <si>
     <t>Shanliang Sun</t>
   </si>
   <si>
     <t>Marton Vass</t>
   </si>
   <si>
+    <t>dataset,software,poster</t>
+  </si>
+  <si>
     <t>Martine Smit</t>
   </si>
   <si>
     <t>Rob Leurs</t>
   </si>
   <si>
+    <t>dataset,poster</t>
+  </si>
+  <si>
     <t>Iwan J.P. de Esch</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>Albert J. Kooistra</t>
   </si>
   <si>
+    <t>dataset,software</t>
+  </si>
+  <si>
     <t>Georgi K. Kanev</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t>Maurice Vanderfeesten</t>
   </si>
   <si>
+    <t>publication,presentation,video</t>
+  </si>
+  <si>
     <t>http://doi.org/10.5281/zenodo.60413</t>
   </si>
   <si>
@@ -208,9 +220,15 @@
     <t>Cody Kingham</t>
   </si>
   <si>
+    <t>publication,software</t>
+  </si>
+  <si>
     <t>Wido van Peursen</t>
   </si>
   <si>
+    <t>publication,software,presentation</t>
+  </si>
+  <si>
     <t>Sandjai Bhulai</t>
   </si>
   <si>
@@ -238,9 +256,15 @@
     <t>Ivan Infante</t>
   </si>
   <si>
+    <t>poster,software</t>
+  </si>
+  <si>
     <t>Lucas Visscher</t>
   </si>
   <si>
+    <t>poster,dataset</t>
+  </si>
+  <si>
     <t>Felipe zapata</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
     <t>Victor van der Veen</t>
   </si>
   <si>
+    <t>dataset,publication</t>
+  </si>
+  <si>
     <t>http://doi.org/10.5281/zenodo.3523939</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
     <t>Anca Dumitrache</t>
   </si>
   <si>
+    <t>software,dataset</t>
+  </si>
+  <si>
     <t>http://doi.org/10.5281/zenodo.1304310</t>
   </si>
   <si>
@@ -556,12 +586,12 @@
     <t>Antonis Loizou</t>
   </si>
   <si>
+    <t>http://doi.org/10.5281/zenodo.1068252</t>
+  </si>
+  <si>
     <t>VU University Amsterdam</t>
   </si>
   <si>
-    <t>http://doi.org/10.5281/zenodo.1068252</t>
-  </si>
-  <si>
     <t>Daan Geerke</t>
   </si>
   <si>
@@ -658,10 +688,13 @@
     <t>Maria Cruz</t>
   </si>
   <si>
+    <t>presentation,publication</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.5281/zenodo.2558289</t>
+  </si>
+  <si>
     <t>VU Amsterdam</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.5281/zenodo.2558289</t>
   </si>
   <si>
     <t>F. H. Gerpott</t>
@@ -1215,13 +1248,13 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1235,13 +1268,13 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1250,24 +1283,24 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1275,39 +1308,39 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1315,159 +1348,159 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1475,59 +1508,59 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>26</v>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1535,19 +1568,19 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>30</v>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1555,199 +1588,199 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>36</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>34</v>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>40</v>
+      <c r="F28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1755,19 +1788,19 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>45</v>
+      <c r="E29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1775,19 +1808,19 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>45</v>
+      <c r="E30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1795,119 +1828,119 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>45</v>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>45</v>
+      <c r="F32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>50</v>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1915,19 +1948,19 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
+      <c r="D37">
         <v>2</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>55</v>
+      <c r="E37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1935,19 +1968,19 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>57</v>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1955,19 +1988,19 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>57</v>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1975,19 +2008,19 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>57</v>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1995,259 +2028,259 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>57</v>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>62</v>
+      <c r="E43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>62</v>
+      <c r="E44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>67</v>
+      <c r="E46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="D50">
         <v>2</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>71</v>
+      <c r="E50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>71</v>
+      <c r="E51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>71</v>
+      <c r="E52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2255,19 +2288,19 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
+      <c r="D54">
         <v>2</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>78</v>
+      <c r="E54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2275,19 +2308,19 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>78</v>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2295,79 +2328,79 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56">
+      <c r="D56">
         <v>2</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>78</v>
+      <c r="E56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>83</v>
+      <c r="E57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="D58">
         <v>3</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>83</v>
+      <c r="E58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59">
+      <c r="D59">
         <v>3</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>86</v>
+      <c r="E59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2375,119 +2408,119 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>86</v>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2495,19 +2528,19 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>96</v>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2515,39 +2548,39 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>96</v>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68">
+      <c r="D68">
         <v>3</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>99</v>
+      <c r="E68" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2555,139 +2588,139 @@
       <c r="C69" t="s">
         <v>8</v>
       </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>99</v>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70">
+      <c r="D70">
         <v>3</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>99</v>
+      <c r="E70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71">
+      <c r="D71">
         <v>3</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>99</v>
+      <c r="E71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="D72">
         <v>4</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>104</v>
+      <c r="E72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="D74">
         <v>5</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>104</v>
+      <c r="E74" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2695,39 +2728,39 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>110</v>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2735,159 +2768,159 @@
       <c r="C78" t="s">
         <v>8</v>
       </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>114</v>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>116</v>
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="D81">
         <v>4</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>118</v>
+      <c r="E81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>121</v>
+        <v>8</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="D84">
         <v>2</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>124</v>
+      <c r="E84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="D85">
         <v>2</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>124</v>
+      <c r="E85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2895,79 +2928,79 @@
       <c r="C86" t="s">
         <v>8</v>
       </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>127</v>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>133</v>
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2975,59 +3008,59 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>135</v>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -3035,59 +3068,59 @@
       <c r="C93" t="s">
         <v>8</v>
       </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>141</v>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>143</v>
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -3095,39 +3128,39 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>147</v>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>149</v>
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -3135,19 +3168,19 @@
       <c r="C98" t="s">
         <v>8</v>
       </c>
-      <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>151</v>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -3155,19 +3188,19 @@
       <c r="C99" t="s">
         <v>8</v>
       </c>
-      <c r="D99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>151</v>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -3175,19 +3208,19 @@
       <c r="C100" t="s">
         <v>8</v>
       </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>154</v>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -3195,59 +3228,59 @@
       <c r="C101" t="s">
         <v>8</v>
       </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101">
+      <c r="D101">
         <v>2</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>156</v>
+      <c r="E101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102">
+        <v>8</v>
+      </c>
+      <c r="D102">
         <v>2</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>158</v>
+      <c r="E102" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>160</v>
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3255,39 +3288,39 @@
       <c r="C104" t="s">
         <v>8</v>
       </c>
-      <c r="D104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104">
+      <c r="D104">
         <v>2</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>162</v>
+      <c r="E104" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
-      <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105">
+      <c r="D105">
         <v>2</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>164</v>
+      <c r="E105" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -3295,179 +3328,179 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>164</v>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>167</v>
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>170</v>
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="D109">
         <v>3</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>173</v>
+      <c r="E109" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
-      <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110">
+      <c r="D110">
         <v>3</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>175</v>
+      <c r="E110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>177</v>
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="D112">
         <v>2</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>177</v>
+      <c r="E112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114">
+        <v>8</v>
+      </c>
+      <c r="D114">
         <v>2</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>183</v>
+      <c r="E114" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3475,19 +3508,19 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>185</v>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3495,79 +3528,79 @@
       <c r="C116" t="s">
         <v>8</v>
       </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>187</v>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C117" t="s">
-        <v>82</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117">
+        <v>8</v>
+      </c>
+      <c r="D117">
         <v>2</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>189</v>
+      <c r="E117" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
-        <v>82</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>191</v>
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>193</v>
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3575,19 +3608,19 @@
       <c r="C120" t="s">
         <v>8</v>
       </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>195</v>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3595,19 +3628,19 @@
       <c r="C121" t="s">
         <v>8</v>
       </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>195</v>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -3615,19 +3648,19 @@
       <c r="C122" t="s">
         <v>8</v>
       </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>195</v>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3635,1064 +3668,1064 @@
       <c r="C123" t="s">
         <v>8</v>
       </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>195</v>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F124" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F125" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F126" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F127" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>205</v>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F128" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>207</v>
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F129" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="C130" t="s">
-        <v>82</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="D130">
         <v>5</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>209</v>
+      <c r="E130" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F130" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="D131">
         <v>2</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>211</v>
+      <c r="E131" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F131" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>211</v>
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F132" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133">
-        <v>10</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>215</v>
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F133" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>217</v>
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F134" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="D135">
         <v>2</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>217</v>
+      <c r="E135" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F135" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>217</v>
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F136" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137">
+        <v>8</v>
+      </c>
+      <c r="D137">
         <v>2</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>217</v>
+      <c r="E137" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F137" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>217</v>
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F138" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>223</v>
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F139" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="D140">
         <v>2</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>223</v>
+      <c r="E140" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F140" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>223</v>
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F141" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F142" t="s">
         <v>226</v>
-      </c>
-      <c r="B142" t="s">
-        <v>214</v>
-      </c>
-      <c r="C142" t="s">
-        <v>18</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>223</v>
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F143" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>229</v>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F144" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>229</v>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F145" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>229</v>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F146" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
-      </c>
-      <c r="D147" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="D147">
         <v>2</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>233</v>
+      <c r="E147" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F147" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>233</v>
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F148" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
-      </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>233</v>
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F149" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D150" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>237</v>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F150" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>237</v>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F151" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B152" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
       </c>
-      <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>237</v>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F152" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
       </c>
-      <c r="D153" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>241</v>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F153" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>241</v>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F154" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
       </c>
-      <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>244</v>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F155" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>244</v>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F156" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="C157" t="s">
-        <v>172</v>
-      </c>
-      <c r="D157" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>247</v>
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F157" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
       </c>
-      <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>249</v>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F158" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="C159" t="s">
-        <v>251</v>
-      </c>
-      <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159">
-        <v>1</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>252</v>
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F159" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
-      </c>
-      <c r="D160" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>254</v>
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F160" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
-        <v>172</v>
-      </c>
-      <c r="D161" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161">
+        <v>8</v>
+      </c>
+      <c r="D161">
         <v>2</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>256</v>
+      <c r="E161" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F161" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
-      </c>
-      <c r="D162" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>258</v>
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F162" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
-      </c>
-      <c r="D163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>260</v>
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F163" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s">
-        <v>262</v>
-      </c>
-      <c r="D164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>263</v>
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F164" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
-      </c>
-      <c r="D165" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>265</v>
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F165" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="C166" t="s">
-        <v>262</v>
-      </c>
-      <c r="D166" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>267</v>
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F166" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B167" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D167" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>269</v>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F167" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100"/>
-    <hyperlink ref="F102" r:id="rId101"/>
-    <hyperlink ref="F103" r:id="rId102"/>
-    <hyperlink ref="F104" r:id="rId103"/>
-    <hyperlink ref="F105" r:id="rId104"/>
-    <hyperlink ref="F106" r:id="rId105"/>
-    <hyperlink ref="F107" r:id="rId106"/>
-    <hyperlink ref="F108" r:id="rId107"/>
-    <hyperlink ref="F109" r:id="rId108"/>
-    <hyperlink ref="F110" r:id="rId109"/>
-    <hyperlink ref="F111" r:id="rId110"/>
-    <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F113" r:id="rId112"/>
-    <hyperlink ref="F114" r:id="rId113"/>
-    <hyperlink ref="F115" r:id="rId114"/>
-    <hyperlink ref="F116" r:id="rId115"/>
-    <hyperlink ref="F117" r:id="rId116"/>
-    <hyperlink ref="F118" r:id="rId117"/>
-    <hyperlink ref="F119" r:id="rId118"/>
-    <hyperlink ref="F120" r:id="rId119"/>
-    <hyperlink ref="F121" r:id="rId120"/>
-    <hyperlink ref="F122" r:id="rId121"/>
-    <hyperlink ref="F123" r:id="rId122"/>
-    <hyperlink ref="F124" r:id="rId123"/>
-    <hyperlink ref="F125" r:id="rId124"/>
-    <hyperlink ref="F126" r:id="rId125"/>
-    <hyperlink ref="F127" r:id="rId126"/>
-    <hyperlink ref="F128" r:id="rId127"/>
-    <hyperlink ref="F129" r:id="rId128"/>
-    <hyperlink ref="F130" r:id="rId129"/>
-    <hyperlink ref="F131" r:id="rId130"/>
-    <hyperlink ref="F132" r:id="rId131"/>
-    <hyperlink ref="F133" r:id="rId132"/>
-    <hyperlink ref="F134" r:id="rId133"/>
-    <hyperlink ref="F135" r:id="rId134"/>
-    <hyperlink ref="F136" r:id="rId135"/>
-    <hyperlink ref="F137" r:id="rId136"/>
-    <hyperlink ref="F138" r:id="rId137"/>
-    <hyperlink ref="F139" r:id="rId138"/>
-    <hyperlink ref="F140" r:id="rId139"/>
-    <hyperlink ref="F141" r:id="rId140"/>
-    <hyperlink ref="F142" r:id="rId141"/>
-    <hyperlink ref="F143" r:id="rId142"/>
-    <hyperlink ref="F144" r:id="rId143"/>
-    <hyperlink ref="F145" r:id="rId144"/>
-    <hyperlink ref="F146" r:id="rId145"/>
-    <hyperlink ref="F147" r:id="rId146"/>
-    <hyperlink ref="F148" r:id="rId147"/>
-    <hyperlink ref="F149" r:id="rId148"/>
-    <hyperlink ref="F150" r:id="rId149"/>
-    <hyperlink ref="F151" r:id="rId150"/>
-    <hyperlink ref="F152" r:id="rId151"/>
-    <hyperlink ref="F153" r:id="rId152"/>
-    <hyperlink ref="F154" r:id="rId153"/>
-    <hyperlink ref="F155" r:id="rId154"/>
-    <hyperlink ref="F156" r:id="rId155"/>
-    <hyperlink ref="F157" r:id="rId156"/>
-    <hyperlink ref="F158" r:id="rId157"/>
-    <hyperlink ref="F159" r:id="rId158"/>
-    <hyperlink ref="F160" r:id="rId159"/>
-    <hyperlink ref="F161" r:id="rId160"/>
-    <hyperlink ref="F162" r:id="rId161"/>
-    <hyperlink ref="F163" r:id="rId162"/>
-    <hyperlink ref="F164" r:id="rId163"/>
-    <hyperlink ref="F165" r:id="rId164"/>
-    <hyperlink ref="F166" r:id="rId165"/>
-    <hyperlink ref="F167" r:id="rId166"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
+    <hyperlink ref="E50" r:id="rId49"/>
+    <hyperlink ref="E51" r:id="rId50"/>
+    <hyperlink ref="E52" r:id="rId51"/>
+    <hyperlink ref="E53" r:id="rId52"/>
+    <hyperlink ref="E54" r:id="rId53"/>
+    <hyperlink ref="E55" r:id="rId54"/>
+    <hyperlink ref="E56" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
+    <hyperlink ref="E64" r:id="rId63"/>
+    <hyperlink ref="E65" r:id="rId64"/>
+    <hyperlink ref="E66" r:id="rId65"/>
+    <hyperlink ref="E67" r:id="rId66"/>
+    <hyperlink ref="E68" r:id="rId67"/>
+    <hyperlink ref="E69" r:id="rId68"/>
+    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E71" r:id="rId70"/>
+    <hyperlink ref="E72" r:id="rId71"/>
+    <hyperlink ref="E73" r:id="rId72"/>
+    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E75" r:id="rId74"/>
+    <hyperlink ref="E76" r:id="rId75"/>
+    <hyperlink ref="E77" r:id="rId76"/>
+    <hyperlink ref="E78" r:id="rId77"/>
+    <hyperlink ref="E79" r:id="rId78"/>
+    <hyperlink ref="E80" r:id="rId79"/>
+    <hyperlink ref="E81" r:id="rId80"/>
+    <hyperlink ref="E82" r:id="rId81"/>
+    <hyperlink ref="E83" r:id="rId82"/>
+    <hyperlink ref="E84" r:id="rId83"/>
+    <hyperlink ref="E85" r:id="rId84"/>
+    <hyperlink ref="E86" r:id="rId85"/>
+    <hyperlink ref="E87" r:id="rId86"/>
+    <hyperlink ref="E88" r:id="rId87"/>
+    <hyperlink ref="E89" r:id="rId88"/>
+    <hyperlink ref="E90" r:id="rId89"/>
+    <hyperlink ref="E91" r:id="rId90"/>
+    <hyperlink ref="E92" r:id="rId91"/>
+    <hyperlink ref="E93" r:id="rId92"/>
+    <hyperlink ref="E94" r:id="rId93"/>
+    <hyperlink ref="E95" r:id="rId94"/>
+    <hyperlink ref="E96" r:id="rId95"/>
+    <hyperlink ref="E97" r:id="rId96"/>
+    <hyperlink ref="E98" r:id="rId97"/>
+    <hyperlink ref="E99" r:id="rId98"/>
+    <hyperlink ref="E100" r:id="rId99"/>
+    <hyperlink ref="E101" r:id="rId100"/>
+    <hyperlink ref="E102" r:id="rId101"/>
+    <hyperlink ref="E103" r:id="rId102"/>
+    <hyperlink ref="E104" r:id="rId103"/>
+    <hyperlink ref="E105" r:id="rId104"/>
+    <hyperlink ref="E106" r:id="rId105"/>
+    <hyperlink ref="E107" r:id="rId106"/>
+    <hyperlink ref="E108" r:id="rId107"/>
+    <hyperlink ref="E109" r:id="rId108"/>
+    <hyperlink ref="E110" r:id="rId109"/>
+    <hyperlink ref="E111" r:id="rId110"/>
+    <hyperlink ref="E112" r:id="rId111"/>
+    <hyperlink ref="E113" r:id="rId112"/>
+    <hyperlink ref="E114" r:id="rId113"/>
+    <hyperlink ref="E115" r:id="rId114"/>
+    <hyperlink ref="E116" r:id="rId115"/>
+    <hyperlink ref="E117" r:id="rId116"/>
+    <hyperlink ref="E118" r:id="rId117"/>
+    <hyperlink ref="E119" r:id="rId118"/>
+    <hyperlink ref="E120" r:id="rId119"/>
+    <hyperlink ref="E121" r:id="rId120"/>
+    <hyperlink ref="E122" r:id="rId121"/>
+    <hyperlink ref="E123" r:id="rId122"/>
+    <hyperlink ref="E124" r:id="rId123"/>
+    <hyperlink ref="E125" r:id="rId124"/>
+    <hyperlink ref="E126" r:id="rId125"/>
+    <hyperlink ref="E127" r:id="rId126"/>
+    <hyperlink ref="E128" r:id="rId127"/>
+    <hyperlink ref="E129" r:id="rId128"/>
+    <hyperlink ref="E130" r:id="rId129"/>
+    <hyperlink ref="E131" r:id="rId130"/>
+    <hyperlink ref="E132" r:id="rId131"/>
+    <hyperlink ref="E133" r:id="rId132"/>
+    <hyperlink ref="E134" r:id="rId133"/>
+    <hyperlink ref="E135" r:id="rId134"/>
+    <hyperlink ref="E136" r:id="rId135"/>
+    <hyperlink ref="E137" r:id="rId136"/>
+    <hyperlink ref="E138" r:id="rId137"/>
+    <hyperlink ref="E139" r:id="rId138"/>
+    <hyperlink ref="E140" r:id="rId139"/>
+    <hyperlink ref="E141" r:id="rId140"/>
+    <hyperlink ref="E142" r:id="rId141"/>
+    <hyperlink ref="E143" r:id="rId142"/>
+    <hyperlink ref="E144" r:id="rId143"/>
+    <hyperlink ref="E145" r:id="rId144"/>
+    <hyperlink ref="E146" r:id="rId145"/>
+    <hyperlink ref="E147" r:id="rId146"/>
+    <hyperlink ref="E148" r:id="rId147"/>
+    <hyperlink ref="E149" r:id="rId148"/>
+    <hyperlink ref="E150" r:id="rId149"/>
+    <hyperlink ref="E151" r:id="rId150"/>
+    <hyperlink ref="E152" r:id="rId151"/>
+    <hyperlink ref="E153" r:id="rId152"/>
+    <hyperlink ref="E154" r:id="rId153"/>
+    <hyperlink ref="E155" r:id="rId154"/>
+    <hyperlink ref="E156" r:id="rId155"/>
+    <hyperlink ref="E157" r:id="rId156"/>
+    <hyperlink ref="E158" r:id="rId157"/>
+    <hyperlink ref="E159" r:id="rId158"/>
+    <hyperlink ref="E160" r:id="rId159"/>
+    <hyperlink ref="E161" r:id="rId160"/>
+    <hyperlink ref="E162" r:id="rId161"/>
+    <hyperlink ref="E163" r:id="rId162"/>
+    <hyperlink ref="E164" r:id="rId163"/>
+    <hyperlink ref="E165" r:id="rId164"/>
+    <hyperlink ref="E166" r:id="rId165"/>
+    <hyperlink ref="E167" r:id="rId166"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zenodo/zenodo_vu_authors.xlsx
+++ b/zenodo/zenodo_vu_authors.xlsx
@@ -28,12 +28,12 @@
     <t>Count</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
     <t>Affiliation</t>
   </si>
   <si>
+    <t>Last URI</t>
+  </si>
+  <si>
     <t>Marta Arimont</t>
   </si>
   <si>
@@ -43,12 +43,12 @@
     <t>zenodo</t>
   </si>
   <si>
+    <t>Vrije Universiteit Amsterdam</t>
+  </si>
+  <si>
     <t>http://doi.org/10.5281/zenodo.268416</t>
   </si>
   <si>
-    <t>Vrije Universiteit Amsterdam</t>
-  </si>
-  <si>
     <t>Shanliang Sun</t>
   </si>
   <si>
@@ -586,12 +586,12 @@
     <t>Antonis Loizou</t>
   </si>
   <si>
+    <t>VU University Amsterdam</t>
+  </si>
+  <si>
     <t>http://doi.org/10.5281/zenodo.1068252</t>
   </si>
   <si>
-    <t>VU University Amsterdam</t>
-  </si>
-  <si>
     <t>Daan Geerke</t>
   </si>
   <si>
@@ -691,10 +691,10 @@
     <t>presentation,publication</t>
   </si>
   <si>
+    <t>VU Amsterdam</t>
+  </si>
+  <si>
     <t>http://doi.org/10.5281/zenodo.2558289</t>
-  </si>
-  <si>
-    <t>VU Amsterdam</t>
   </si>
   <si>
     <t>F. H. Gerpott</t>
@@ -1251,10 +1251,10 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1271,10 +1271,10 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1291,10 +1291,10 @@
       <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1311,10 +1311,10 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1331,10 +1331,10 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1351,10 +1351,10 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1371,10 +1371,10 @@
       <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1391,11 +1391,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1411,11 +1411,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1431,11 +1431,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1451,11 +1451,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1471,11 +1471,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1491,11 +1491,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1511,11 +1511,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1531,11 +1531,11 @@
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1551,11 +1551,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1571,11 +1571,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1591,11 +1591,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1611,11 +1611,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1631,11 +1631,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1651,11 +1651,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1671,11 +1671,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1691,11 +1691,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1711,11 +1711,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1731,11 +1731,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1751,11 +1751,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1771,11 +1771,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1791,11 +1791,11 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1811,11 +1811,11 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1831,11 +1831,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1851,11 +1851,11 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1871,11 +1871,11 @@
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1891,11 +1891,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1911,11 +1911,11 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1931,11 +1931,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1951,11 +1951,11 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1971,11 +1971,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F38" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1991,11 +1991,11 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2011,11 +2011,11 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2031,11 +2031,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2051,11 +2051,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2071,11 +2071,11 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2091,11 +2091,11 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2111,11 +2111,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2131,11 +2131,11 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2151,11 +2151,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2171,11 +2171,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2191,11 +2191,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F49" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2211,11 +2211,11 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F50" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2231,11 +2231,11 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F51" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2251,11 +2251,11 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F52" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2271,11 +2271,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="F53" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2291,11 +2291,11 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2311,11 +2311,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F55" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2331,11 +2331,11 @@
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F56" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2351,11 +2351,11 @@
       <c r="D57">
         <v>6</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F57" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2371,11 +2371,11 @@
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F58" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2391,11 +2391,11 @@
       <c r="D59">
         <v>3</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F59" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2411,11 +2411,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F60" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2431,11 +2431,11 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2451,11 +2451,11 @@
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F62" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2471,11 +2471,11 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2491,11 +2491,11 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F64" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2511,11 +2511,11 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2531,11 +2531,11 @@
       <c r="D66">
         <v>1</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2551,11 +2551,11 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F67" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2571,11 +2571,11 @@
       <c r="D68">
         <v>3</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2591,11 +2591,11 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F69" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2611,11 +2611,11 @@
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F70" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2631,11 +2631,11 @@
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F71" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2651,11 +2651,11 @@
       <c r="D72">
         <v>4</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F72" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2671,11 +2671,11 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F73" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2691,11 +2691,11 @@
       <c r="D74">
         <v>5</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F74" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2711,11 +2711,11 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2731,11 +2731,11 @@
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F76" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2751,11 +2751,11 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2771,11 +2771,11 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F78" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2791,11 +2791,11 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F79" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2811,11 +2811,11 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F80" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2831,11 +2831,11 @@
       <c r="D81">
         <v>4</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F81" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2851,11 +2851,11 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2871,11 +2871,11 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2891,11 +2891,11 @@
       <c r="D84">
         <v>2</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F84" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2911,11 +2911,11 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2931,11 +2931,11 @@
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2951,11 +2951,11 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F87" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2971,11 +2971,11 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F88" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2991,11 +2991,11 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3011,11 +3011,11 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F90" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3031,11 +3031,11 @@
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3051,11 +3051,11 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F92" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3071,11 +3071,11 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3091,11 +3091,11 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F94" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3111,11 +3111,11 @@
       <c r="D95">
         <v>1</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3131,11 +3131,11 @@
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="F96" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3151,11 +3151,11 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3171,11 +3171,11 @@
       <c r="D98">
         <v>1</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F98" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3191,11 +3191,11 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3211,11 +3211,11 @@
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3231,11 +3231,11 @@
       <c r="D101">
         <v>2</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F101" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3251,11 +3251,11 @@
       <c r="D102">
         <v>2</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F102" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3271,11 +3271,11 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F103" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3291,11 +3291,11 @@
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3311,11 +3311,11 @@
       <c r="D105">
         <v>2</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3331,11 +3331,11 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3351,11 +3351,11 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3371,11 +3371,11 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="F108" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3391,11 +3391,11 @@
       <c r="D109">
         <v>3</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F109" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3411,11 +3411,11 @@
       <c r="D110">
         <v>3</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F110" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3431,11 +3431,11 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F111" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3451,11 +3451,11 @@
       <c r="D112">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F112" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3471,10 +3471,10 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" t="s">
         <v>190</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3491,11 +3491,11 @@
       <c r="D114">
         <v>2</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F114" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3511,11 +3511,11 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F115" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3531,11 +3531,11 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F116" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3551,11 +3551,11 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F117" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3571,11 +3571,11 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="F118" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3591,11 +3591,11 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="F119" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3611,11 +3611,11 @@
       <c r="D120">
         <v>1</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F120" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3631,11 +3631,11 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3651,11 +3651,11 @@
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F122" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3671,11 +3671,11 @@
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3691,11 +3691,11 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" t="s">
+        <v>190</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F124" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3711,11 +3711,11 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" t="s">
+        <v>190</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F125" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3731,11 +3731,11 @@
       <c r="D126">
         <v>1</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" t="s">
+        <v>190</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F126" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3751,11 +3751,11 @@
       <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" t="s">
+        <v>190</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F127" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3771,11 +3771,11 @@
       <c r="D128">
         <v>1</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="F128" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3791,11 +3791,11 @@
       <c r="D129">
         <v>1</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F129" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3811,11 +3811,11 @@
       <c r="D130">
         <v>5</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="F130" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3831,11 +3831,11 @@
       <c r="D131">
         <v>2</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" t="s">
+        <v>190</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F131" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3851,11 +3851,11 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" t="s">
+        <v>190</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F132" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3871,10 +3871,10 @@
       <c r="D133">
         <v>10</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" t="s">
         <v>225</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3891,11 +3891,11 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" t="s">
+        <v>225</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F134" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3911,11 +3911,11 @@
       <c r="D135">
         <v>2</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" t="s">
+        <v>225</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F135" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3931,11 +3931,11 @@
       <c r="D136">
         <v>1</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" t="s">
+        <v>225</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F136" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3951,11 +3951,11 @@
       <c r="D137">
         <v>2</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" t="s">
+        <v>225</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F137" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3971,11 +3971,11 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" t="s">
+        <v>225</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F138" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3991,11 +3991,11 @@
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" t="s">
+        <v>225</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F139" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4011,11 +4011,11 @@
       <c r="D140">
         <v>2</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" t="s">
+        <v>225</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F140" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4031,11 +4031,11 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" t="s">
+        <v>225</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F141" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4051,11 +4051,11 @@
       <c r="D142">
         <v>1</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" t="s">
+        <v>225</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F142" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4071,11 +4071,11 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" t="s">
+        <v>225</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="F143" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4091,11 +4091,11 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" t="s">
+        <v>225</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F144" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4111,11 +4111,11 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" t="s">
+        <v>225</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F145" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4131,11 +4131,11 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" t="s">
+        <v>225</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="F146" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4151,11 +4151,11 @@
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" t="s">
+        <v>225</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F147" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4171,11 +4171,11 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" t="s">
+        <v>225</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F148" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4191,11 +4191,11 @@
       <c r="D149">
         <v>1</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" t="s">
+        <v>225</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="F149" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4211,11 +4211,11 @@
       <c r="D150">
         <v>1</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" t="s">
+        <v>225</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F150" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4231,11 +4231,11 @@
       <c r="D151">
         <v>1</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" t="s">
+        <v>225</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F151" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4251,11 +4251,11 @@
       <c r="D152">
         <v>1</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" t="s">
+        <v>225</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="F152" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4271,11 +4271,11 @@
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" t="s">
+        <v>225</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F153" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4291,11 +4291,11 @@
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" t="s">
+        <v>225</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="F154" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4311,11 +4311,11 @@
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" t="s">
+        <v>225</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F155" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4331,11 +4331,11 @@
       <c r="D156">
         <v>1</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" t="s">
+        <v>225</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F156" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4351,11 +4351,11 @@
       <c r="D157">
         <v>1</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" t="s">
+        <v>225</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="F157" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4371,11 +4371,11 @@
       <c r="D158">
         <v>1</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" t="s">
+        <v>225</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F158" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4391,11 +4391,11 @@
       <c r="D159">
         <v>1</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" t="s">
+        <v>225</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="F159" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4411,11 +4411,11 @@
       <c r="D160">
         <v>1</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" t="s">
+        <v>225</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="F160" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4431,11 +4431,11 @@
       <c r="D161">
         <v>2</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" t="s">
+        <v>225</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F161" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4451,11 +4451,11 @@
       <c r="D162">
         <v>1</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" t="s">
+        <v>225</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F162" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4471,11 +4471,11 @@
       <c r="D163">
         <v>1</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" t="s">
+        <v>225</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="F163" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4491,11 +4491,11 @@
       <c r="D164">
         <v>1</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" t="s">
+        <v>225</v>
+      </c>
+      <c r="F164" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="F164" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4511,11 +4511,11 @@
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" t="s">
+        <v>225</v>
+      </c>
+      <c r="F165" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="F165" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4531,11 +4531,11 @@
       <c r="D166">
         <v>1</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" t="s">
+        <v>225</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="F166" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4551,181 +4551,181 @@
       <c r="D167">
         <v>1</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" t="s">
+        <v>225</v>
+      </c>
+      <c r="F167" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="F167" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
-    <hyperlink ref="E76" r:id="rId75"/>
-    <hyperlink ref="E77" r:id="rId76"/>
-    <hyperlink ref="E78" r:id="rId77"/>
-    <hyperlink ref="E79" r:id="rId78"/>
-    <hyperlink ref="E80" r:id="rId79"/>
-    <hyperlink ref="E81" r:id="rId80"/>
-    <hyperlink ref="E82" r:id="rId81"/>
-    <hyperlink ref="E83" r:id="rId82"/>
-    <hyperlink ref="E84" r:id="rId83"/>
-    <hyperlink ref="E85" r:id="rId84"/>
-    <hyperlink ref="E86" r:id="rId85"/>
-    <hyperlink ref="E87" r:id="rId86"/>
-    <hyperlink ref="E88" r:id="rId87"/>
-    <hyperlink ref="E89" r:id="rId88"/>
-    <hyperlink ref="E90" r:id="rId89"/>
-    <hyperlink ref="E91" r:id="rId90"/>
-    <hyperlink ref="E92" r:id="rId91"/>
-    <hyperlink ref="E93" r:id="rId92"/>
-    <hyperlink ref="E94" r:id="rId93"/>
-    <hyperlink ref="E95" r:id="rId94"/>
-    <hyperlink ref="E96" r:id="rId95"/>
-    <hyperlink ref="E97" r:id="rId96"/>
-    <hyperlink ref="E98" r:id="rId97"/>
-    <hyperlink ref="E99" r:id="rId98"/>
-    <hyperlink ref="E100" r:id="rId99"/>
-    <hyperlink ref="E101" r:id="rId100"/>
-    <hyperlink ref="E102" r:id="rId101"/>
-    <hyperlink ref="E103" r:id="rId102"/>
-    <hyperlink ref="E104" r:id="rId103"/>
-    <hyperlink ref="E105" r:id="rId104"/>
-    <hyperlink ref="E106" r:id="rId105"/>
-    <hyperlink ref="E107" r:id="rId106"/>
-    <hyperlink ref="E108" r:id="rId107"/>
-    <hyperlink ref="E109" r:id="rId108"/>
-    <hyperlink ref="E110" r:id="rId109"/>
-    <hyperlink ref="E111" r:id="rId110"/>
-    <hyperlink ref="E112" r:id="rId111"/>
-    <hyperlink ref="E113" r:id="rId112"/>
-    <hyperlink ref="E114" r:id="rId113"/>
-    <hyperlink ref="E115" r:id="rId114"/>
-    <hyperlink ref="E116" r:id="rId115"/>
-    <hyperlink ref="E117" r:id="rId116"/>
-    <hyperlink ref="E118" r:id="rId117"/>
-    <hyperlink ref="E119" r:id="rId118"/>
-    <hyperlink ref="E120" r:id="rId119"/>
-    <hyperlink ref="E121" r:id="rId120"/>
-    <hyperlink ref="E122" r:id="rId121"/>
-    <hyperlink ref="E123" r:id="rId122"/>
-    <hyperlink ref="E124" r:id="rId123"/>
-    <hyperlink ref="E125" r:id="rId124"/>
-    <hyperlink ref="E126" r:id="rId125"/>
-    <hyperlink ref="E127" r:id="rId126"/>
-    <hyperlink ref="E128" r:id="rId127"/>
-    <hyperlink ref="E129" r:id="rId128"/>
-    <hyperlink ref="E130" r:id="rId129"/>
-    <hyperlink ref="E131" r:id="rId130"/>
-    <hyperlink ref="E132" r:id="rId131"/>
-    <hyperlink ref="E133" r:id="rId132"/>
-    <hyperlink ref="E134" r:id="rId133"/>
-    <hyperlink ref="E135" r:id="rId134"/>
-    <hyperlink ref="E136" r:id="rId135"/>
-    <hyperlink ref="E137" r:id="rId136"/>
-    <hyperlink ref="E138" r:id="rId137"/>
-    <hyperlink ref="E139" r:id="rId138"/>
-    <hyperlink ref="E140" r:id="rId139"/>
-    <hyperlink ref="E141" r:id="rId140"/>
-    <hyperlink ref="E142" r:id="rId141"/>
-    <hyperlink ref="E143" r:id="rId142"/>
-    <hyperlink ref="E144" r:id="rId143"/>
-    <hyperlink ref="E145" r:id="rId144"/>
-    <hyperlink ref="E146" r:id="rId145"/>
-    <hyperlink ref="E147" r:id="rId146"/>
-    <hyperlink ref="E148" r:id="rId147"/>
-    <hyperlink ref="E149" r:id="rId148"/>
-    <hyperlink ref="E150" r:id="rId149"/>
-    <hyperlink ref="E151" r:id="rId150"/>
-    <hyperlink ref="E152" r:id="rId151"/>
-    <hyperlink ref="E153" r:id="rId152"/>
-    <hyperlink ref="E154" r:id="rId153"/>
-    <hyperlink ref="E155" r:id="rId154"/>
-    <hyperlink ref="E156" r:id="rId155"/>
-    <hyperlink ref="E157" r:id="rId156"/>
-    <hyperlink ref="E158" r:id="rId157"/>
-    <hyperlink ref="E159" r:id="rId158"/>
-    <hyperlink ref="E160" r:id="rId159"/>
-    <hyperlink ref="E161" r:id="rId160"/>
-    <hyperlink ref="E162" r:id="rId161"/>
-    <hyperlink ref="E163" r:id="rId162"/>
-    <hyperlink ref="E164" r:id="rId163"/>
-    <hyperlink ref="E165" r:id="rId164"/>
-    <hyperlink ref="E166" r:id="rId165"/>
-    <hyperlink ref="E167" r:id="rId166"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F21" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F23" r:id="rId22"/>
+    <hyperlink ref="F24" r:id="rId23"/>
+    <hyperlink ref="F25" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F27" r:id="rId26"/>
+    <hyperlink ref="F28" r:id="rId27"/>
+    <hyperlink ref="F29" r:id="rId28"/>
+    <hyperlink ref="F30" r:id="rId29"/>
+    <hyperlink ref="F31" r:id="rId30"/>
+    <hyperlink ref="F32" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F35" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F39" r:id="rId38"/>
+    <hyperlink ref="F40" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F43" r:id="rId42"/>
+    <hyperlink ref="F44" r:id="rId43"/>
+    <hyperlink ref="F45" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F50" r:id="rId49"/>
+    <hyperlink ref="F51" r:id="rId50"/>
+    <hyperlink ref="F52" r:id="rId51"/>
+    <hyperlink ref="F53" r:id="rId52"/>
+    <hyperlink ref="F54" r:id="rId53"/>
+    <hyperlink ref="F55" r:id="rId54"/>
+    <hyperlink ref="F56" r:id="rId55"/>
+    <hyperlink ref="F57" r:id="rId56"/>
+    <hyperlink ref="F58" r:id="rId57"/>
+    <hyperlink ref="F59" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F61" r:id="rId60"/>
+    <hyperlink ref="F62" r:id="rId61"/>
+    <hyperlink ref="F63" r:id="rId62"/>
+    <hyperlink ref="F64" r:id="rId63"/>
+    <hyperlink ref="F65" r:id="rId64"/>
+    <hyperlink ref="F66" r:id="rId65"/>
+    <hyperlink ref="F67" r:id="rId66"/>
+    <hyperlink ref="F68" r:id="rId67"/>
+    <hyperlink ref="F69" r:id="rId68"/>
+    <hyperlink ref="F70" r:id="rId69"/>
+    <hyperlink ref="F71" r:id="rId70"/>
+    <hyperlink ref="F72" r:id="rId71"/>
+    <hyperlink ref="F73" r:id="rId72"/>
+    <hyperlink ref="F74" r:id="rId73"/>
+    <hyperlink ref="F75" r:id="rId74"/>
+    <hyperlink ref="F76" r:id="rId75"/>
+    <hyperlink ref="F77" r:id="rId76"/>
+    <hyperlink ref="F78" r:id="rId77"/>
+    <hyperlink ref="F79" r:id="rId78"/>
+    <hyperlink ref="F80" r:id="rId79"/>
+    <hyperlink ref="F81" r:id="rId80"/>
+    <hyperlink ref="F82" r:id="rId81"/>
+    <hyperlink ref="F83" r:id="rId82"/>
+    <hyperlink ref="F84" r:id="rId83"/>
+    <hyperlink ref="F85" r:id="rId84"/>
+    <hyperlink ref="F86" r:id="rId85"/>
+    <hyperlink ref="F87" r:id="rId86"/>
+    <hyperlink ref="F88" r:id="rId87"/>
+    <hyperlink ref="F89" r:id="rId88"/>
+    <hyperlink ref="F90" r:id="rId89"/>
+    <hyperlink ref="F91" r:id="rId90"/>
+    <hyperlink ref="F92" r:id="rId91"/>
+    <hyperlink ref="F93" r:id="rId92"/>
+    <hyperlink ref="F94" r:id="rId93"/>
+    <hyperlink ref="F95" r:id="rId94"/>
+    <hyperlink ref="F96" r:id="rId95"/>
+    <hyperlink ref="F97" r:id="rId96"/>
+    <hyperlink ref="F98" r:id="rId97"/>
+    <hyperlink ref="F99" r:id="rId98"/>
+    <hyperlink ref="F100" r:id="rId99"/>
+    <hyperlink ref="F101" r:id="rId100"/>
+    <hyperlink ref="F102" r:id="rId101"/>
+    <hyperlink ref="F103" r:id="rId102"/>
+    <hyperlink ref="F104" r:id="rId103"/>
+    <hyperlink ref="F105" r:id="rId104"/>
+    <hyperlink ref="F106" r:id="rId105"/>
+    <hyperlink ref="F107" r:id="rId106"/>
+    <hyperlink ref="F108" r:id="rId107"/>
+    <hyperlink ref="F109" r:id="rId108"/>
+    <hyperlink ref="F110" r:id="rId109"/>
+    <hyperlink ref="F111" r:id="rId110"/>
+    <hyperlink ref="F112" r:id="rId111"/>
+    <hyperlink ref="F113" r:id="rId112"/>
+    <hyperlink ref="F114" r:id="rId113"/>
+    <hyperlink ref="F115" r:id="rId114"/>
+    <hyperlink ref="F116" r:id="rId115"/>
+    <hyperlink ref="F117" r:id="rId116"/>
+    <hyperlink ref="F118" r:id="rId117"/>
+    <hyperlink ref="F119" r:id="rId118"/>
+    <hyperlink ref="F120" r:id="rId119"/>
+    <hyperlink ref="F121" r:id="rId120"/>
+    <hyperlink ref="F122" r:id="rId121"/>
+    <hyperlink ref="F123" r:id="rId122"/>
+    <hyperlink ref="F124" r:id="rId123"/>
+    <hyperlink ref="F125" r:id="rId124"/>
+    <hyperlink ref="F126" r:id="rId125"/>
+    <hyperlink ref="F127" r:id="rId126"/>
+    <hyperlink ref="F128" r:id="rId127"/>
+    <hyperlink ref="F129" r:id="rId128"/>
+    <hyperlink ref="F130" r:id="rId129"/>
+    <hyperlink ref="F131" r:id="rId130"/>
+    <hyperlink ref="F132" r:id="rId131"/>
+    <hyperlink ref="F133" r:id="rId132"/>
+    <hyperlink ref="F134" r:id="rId133"/>
+    <hyperlink ref="F135" r:id="rId134"/>
+    <hyperlink ref="F136" r:id="rId135"/>
+    <hyperlink ref="F137" r:id="rId136"/>
+    <hyperlink ref="F138" r:id="rId137"/>
+    <hyperlink ref="F139" r:id="rId138"/>
+    <hyperlink ref="F140" r:id="rId139"/>
+    <hyperlink ref="F141" r:id="rId140"/>
+    <hyperlink ref="F142" r:id="rId141"/>
+    <hyperlink ref="F143" r:id="rId142"/>
+    <hyperlink ref="F144" r:id="rId143"/>
+    <hyperlink ref="F145" r:id="rId144"/>
+    <hyperlink ref="F146" r:id="rId145"/>
+    <hyperlink ref="F147" r:id="rId146"/>
+    <hyperlink ref="F148" r:id="rId147"/>
+    <hyperlink ref="F149" r:id="rId148"/>
+    <hyperlink ref="F150" r:id="rId149"/>
+    <hyperlink ref="F151" r:id="rId150"/>
+    <hyperlink ref="F152" r:id="rId151"/>
+    <hyperlink ref="F153" r:id="rId152"/>
+    <hyperlink ref="F154" r:id="rId153"/>
+    <hyperlink ref="F155" r:id="rId154"/>
+    <hyperlink ref="F156" r:id="rId155"/>
+    <hyperlink ref="F157" r:id="rId156"/>
+    <hyperlink ref="F158" r:id="rId157"/>
+    <hyperlink ref="F159" r:id="rId158"/>
+    <hyperlink ref="F160" r:id="rId159"/>
+    <hyperlink ref="F161" r:id="rId160"/>
+    <hyperlink ref="F162" r:id="rId161"/>
+    <hyperlink ref="F163" r:id="rId162"/>
+    <hyperlink ref="F164" r:id="rId163"/>
+    <hyperlink ref="F165" r:id="rId164"/>
+    <hyperlink ref="F166" r:id="rId165"/>
+    <hyperlink ref="F167" r:id="rId166"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
